--- a/Python/PlayPython/Skool VS Koshuis/Output/Final_Filterd.xlsx
+++ b/Python/PlayPython/Skool VS Koshuis/Output/Final_Filterd.xlsx
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -524,13 +524,13 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>960</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -576,13 +576,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -602,13 +602,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -628,13 +628,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -654,13 +654,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Python/PlayPython/Skool VS Koshuis/Output/Final_Filterd.xlsx
+++ b/Python/PlayPython/Skool VS Koshuis/Output/Final_Filterd.xlsx
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G2">
-        <v>360</v>
+        <v>5000</v>
       </c>
       <c r="H2">
-        <v>960</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -524,13 +524,13 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G3">
-        <v>360</v>
+        <v>5000</v>
       </c>
       <c r="H3">
-        <v>960</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G4">
-        <v>360</v>
+        <v>5000</v>
       </c>
       <c r="H4">
-        <v>960</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -576,13 +576,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -602,13 +602,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -628,13 +628,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -654,13 +654,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
